--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_16ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_16ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
@@ -4027,28 +4027,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>869.0066255201675</v>
+        <v>1014.638722675156</v>
       </c>
       <c r="AB2" t="n">
-        <v>1189.013202903261</v>
+        <v>1388.2734630654</v>
       </c>
       <c r="AC2" t="n">
-        <v>1075.535451608684</v>
+        <v>1255.778592204481</v>
       </c>
       <c r="AD2" t="n">
-        <v>869006.6255201675</v>
+        <v>1014638.722675156</v>
       </c>
       <c r="AE2" t="n">
-        <v>1189013.202903261</v>
+        <v>1388273.4630654</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.859085878570571e-07</v>
+        <v>1.328617461570883e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.78125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1075535.451608684</v>
+        <v>1255778.592204481</v>
       </c>
     </row>
     <row r="3">
@@ -4133,28 +4133,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>625.163197432783</v>
+        <v>729.2227881325706</v>
       </c>
       <c r="AB3" t="n">
-        <v>855.3758669812884</v>
+        <v>997.7547897618782</v>
       </c>
       <c r="AC3" t="n">
-        <v>773.7399947641629</v>
+        <v>902.5304729846464</v>
       </c>
       <c r="AD3" t="n">
-        <v>625163.197432783</v>
+        <v>729222.7881325706</v>
       </c>
       <c r="AE3" t="n">
-        <v>855375.8669812884</v>
+        <v>997754.7897618782</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.009800336438135e-06</v>
+        <v>1.707117571205214e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.06944444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>773739.9947641629</v>
+        <v>902530.4729846464</v>
       </c>
     </row>
     <row r="4">
@@ -4239,28 +4239,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>553.996132503305</v>
+        <v>647.6412389985118</v>
       </c>
       <c r="AB4" t="n">
-        <v>758.001949075459</v>
+        <v>886.1313151127248</v>
       </c>
       <c r="AC4" t="n">
-        <v>685.6593069181137</v>
+        <v>801.5601860914775</v>
       </c>
       <c r="AD4" t="n">
-        <v>553996.132503305</v>
+        <v>647641.2389985118</v>
       </c>
       <c r="AE4" t="n">
-        <v>758001.949075459</v>
+        <v>886131.3151127248</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.097214285399367e-06</v>
+        <v>1.854895189072245e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.46354166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>685659.3069181136</v>
+        <v>801560.1860914775</v>
       </c>
     </row>
     <row r="5">
@@ -4345,28 +4345,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>519.943764611215</v>
+        <v>613.6741224524426</v>
       </c>
       <c r="AB5" t="n">
-        <v>711.4099970410559</v>
+        <v>839.6560077309711</v>
       </c>
       <c r="AC5" t="n">
-        <v>643.5140253936586</v>
+        <v>759.5204168177348</v>
       </c>
       <c r="AD5" t="n">
-        <v>519943.764611215</v>
+        <v>613674.1224524425</v>
       </c>
       <c r="AE5" t="n">
-        <v>711409.9970410559</v>
+        <v>839656.0077309711</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.141726541919813e-06</v>
+        <v>1.930145367249129e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.74305555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>643514.0253936586</v>
+        <v>759520.4168177348</v>
       </c>
     </row>
     <row r="6">
@@ -4451,28 +4451,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>504.646703941633</v>
+        <v>598.2064695822684</v>
       </c>
       <c r="AB6" t="n">
-        <v>690.4798837742463</v>
+        <v>818.4924826893146</v>
       </c>
       <c r="AC6" t="n">
-        <v>624.5814527614349</v>
+        <v>740.3767089028601</v>
       </c>
       <c r="AD6" t="n">
-        <v>504646.703941633</v>
+        <v>598206.4695822684</v>
       </c>
       <c r="AE6" t="n">
-        <v>690479.8837742463</v>
+        <v>818492.4826893145</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.170553304794878e-06</v>
+        <v>1.978878440163891e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.30902777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>624581.4527614348</v>
+        <v>740376.7089028601</v>
       </c>
     </row>
     <row r="7">
@@ -4557,28 +4557,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>493.238855106684</v>
+        <v>576.5548182518817</v>
       </c>
       <c r="AB7" t="n">
-        <v>674.871161719498</v>
+        <v>788.8677381356378</v>
       </c>
       <c r="AC7" t="n">
-        <v>610.4624052326127</v>
+        <v>713.579308390796</v>
       </c>
       <c r="AD7" t="n">
-        <v>493238.855106684</v>
+        <v>576554.8182518816</v>
       </c>
       <c r="AE7" t="n">
-        <v>674871.161719498</v>
+        <v>788867.7381356377</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.188899730397957e-06</v>
+        <v>2.009893982925837e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.03993055555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>610462.4052326127</v>
+        <v>713579.308390796</v>
       </c>
     </row>
     <row r="8">
@@ -4663,28 +4663,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>473.4266380051848</v>
+        <v>567.0716549918407</v>
       </c>
       <c r="AB8" t="n">
-        <v>647.763212227896</v>
+        <v>775.8924557956136</v>
       </c>
       <c r="AC8" t="n">
-        <v>585.9416003942431</v>
+        <v>701.8423687863806</v>
       </c>
       <c r="AD8" t="n">
-        <v>473426.6380051848</v>
+        <v>567071.6549918407</v>
       </c>
       <c r="AE8" t="n">
-        <v>647763.212227896</v>
+        <v>775892.4557956136</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.20386163728291e-06</v>
+        <v>2.035187828867831e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.83159722222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>585941.6003942431</v>
+        <v>701842.3687863806</v>
       </c>
     </row>
     <row r="9">
@@ -4769,28 +4769,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>464.3606700779812</v>
+        <v>558.005687064637</v>
       </c>
       <c r="AB9" t="n">
-        <v>635.3587549476188</v>
+        <v>763.4879985153364</v>
       </c>
       <c r="AC9" t="n">
-        <v>574.7210071070305</v>
+        <v>690.6217754991678</v>
       </c>
       <c r="AD9" t="n">
-        <v>464360.6700779812</v>
+        <v>558005.687064637</v>
       </c>
       <c r="AE9" t="n">
-        <v>635358.7549476188</v>
+        <v>763487.9985153363</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.217049589529398e-06</v>
+        <v>2.057482716476609e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.64930555555556</v>
       </c>
       <c r="AH9" t="n">
-        <v>574721.0071070305</v>
+        <v>690621.7754991679</v>
       </c>
     </row>
     <row r="10">
@@ -4875,28 +4875,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>456.9770618256134</v>
+        <v>550.6220788122691</v>
       </c>
       <c r="AB10" t="n">
-        <v>625.2561763949228</v>
+        <v>753.3854199626404</v>
       </c>
       <c r="AC10" t="n">
-        <v>565.5826044723458</v>
+        <v>681.4833728644832</v>
       </c>
       <c r="AD10" t="n">
-        <v>456977.0618256134</v>
+        <v>550622.0788122691</v>
       </c>
       <c r="AE10" t="n">
-        <v>625256.1763949228</v>
+        <v>753385.4199626404</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.225966045738527e-06</v>
+        <v>2.072556428098826e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.52777777777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>565582.6044723458</v>
+        <v>681483.3728644832</v>
       </c>
     </row>
     <row r="11">
@@ -4981,28 +4981,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>451.0686439319416</v>
+        <v>534.2992662225677</v>
       </c>
       <c r="AB11" t="n">
-        <v>617.1720183718</v>
+        <v>731.0518276657422</v>
       </c>
       <c r="AC11" t="n">
-        <v>558.2699871447629</v>
+        <v>661.2812672710072</v>
       </c>
       <c r="AD11" t="n">
-        <v>451068.6439319416</v>
+        <v>534299.2662225676</v>
       </c>
       <c r="AE11" t="n">
-        <v>617172.0183718001</v>
+        <v>731051.8276657421</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.229117149372644e-06</v>
+        <v>2.077883525138092e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.484375</v>
       </c>
       <c r="AH11" t="n">
-        <v>558269.9871447629</v>
+        <v>661281.2672710072</v>
       </c>
     </row>
     <row r="12">
@@ -5087,28 +5087,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>443.8455325005431</v>
+        <v>527.0761547911691</v>
       </c>
       <c r="AB12" t="n">
-        <v>607.2890386501743</v>
+        <v>721.1688479441165</v>
       </c>
       <c r="AC12" t="n">
-        <v>549.3302251369199</v>
+        <v>652.3415052631642</v>
       </c>
       <c r="AD12" t="n">
-        <v>443845.532500543</v>
+        <v>527076.1547911691</v>
       </c>
       <c r="AE12" t="n">
-        <v>607289.0386501744</v>
+        <v>721168.8479441165</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.238453752732989e-06</v>
+        <v>2.093667516365545e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.36284722222222</v>
       </c>
       <c r="AH12" t="n">
-        <v>549330.2251369199</v>
+        <v>652341.5052631642</v>
       </c>
     </row>
     <row r="13">
@@ -5193,28 +5193,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>436.4808103506966</v>
+        <v>519.7114326413226</v>
       </c>
       <c r="AB13" t="n">
-        <v>597.212300896144</v>
+        <v>711.092110190086</v>
       </c>
       <c r="AC13" t="n">
-        <v>540.215197091344</v>
+        <v>643.2264772175884</v>
       </c>
       <c r="AD13" t="n">
-        <v>436480.8103506966</v>
+        <v>519711.4326413226</v>
       </c>
       <c r="AE13" t="n">
-        <v>597212.300896144</v>
+        <v>711092.1101900861</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.241674880892308e-06</v>
+        <v>2.099112993339017e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.31944444444444</v>
       </c>
       <c r="AH13" t="n">
-        <v>540215.1970913439</v>
+        <v>643226.4772175883</v>
       </c>
     </row>
     <row r="14">
@@ -5299,28 +5299,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>433.9089416813657</v>
+        <v>517.1395639719916</v>
       </c>
       <c r="AB14" t="n">
-        <v>593.6933567199276</v>
+        <v>707.5731660138697</v>
       </c>
       <c r="AC14" t="n">
-        <v>537.0320960084365</v>
+        <v>640.0433761346808</v>
       </c>
       <c r="AD14" t="n">
-        <v>433908.9416813657</v>
+        <v>517139.5639719917</v>
       </c>
       <c r="AE14" t="n">
-        <v>593693.3567199276</v>
+        <v>707573.1660138697</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.244195763799601e-06</v>
+        <v>2.103374670970429e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.28472222222222</v>
       </c>
       <c r="AH14" t="n">
-        <v>537032.0960084365</v>
+        <v>640043.3761346808</v>
       </c>
     </row>
     <row r="15">
@@ -5405,28 +5405,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>434.6818619454048</v>
+        <v>517.9124842360308</v>
       </c>
       <c r="AB15" t="n">
-        <v>594.7509003240214</v>
+        <v>708.6307096179632</v>
       </c>
       <c r="AC15" t="n">
-        <v>537.9887091352273</v>
+        <v>640.9999892614717</v>
       </c>
       <c r="AD15" t="n">
-        <v>434681.8619454048</v>
+        <v>517912.4842360307</v>
       </c>
       <c r="AE15" t="n">
-        <v>594750.9003240213</v>
+        <v>708630.7096179633</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.24470927698442e-06</v>
+        <v>2.104242790487939e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16.27604166666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>537988.7091352273</v>
+        <v>640999.9892614717</v>
       </c>
     </row>
   </sheetData>
@@ -5702,28 +5702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>701.1480807528926</v>
+        <v>812.1444165439052</v>
       </c>
       <c r="AB2" t="n">
-        <v>959.3417365563272</v>
+        <v>1111.211819998326</v>
       </c>
       <c r="AC2" t="n">
-        <v>867.7835076639742</v>
+        <v>1005.159323493269</v>
       </c>
       <c r="AD2" t="n">
-        <v>701148.0807528927</v>
+        <v>812144.4165439052</v>
       </c>
       <c r="AE2" t="n">
-        <v>959341.7365563272</v>
+        <v>1111211.819998326</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.07713869941105e-07</v>
+        <v>1.571970717331685e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.09027777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>867783.5076639742</v>
+        <v>1005159.323493269</v>
       </c>
     </row>
     <row r="3">
@@ -5808,28 +5808,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>523.3117075709057</v>
+        <v>624.1320451549354</v>
       </c>
       <c r="AB3" t="n">
-        <v>716.0181651816617</v>
+        <v>853.9649989435097</v>
       </c>
       <c r="AC3" t="n">
-        <v>647.6823964345297</v>
+        <v>772.463777991744</v>
       </c>
       <c r="AD3" t="n">
-        <v>523311.7075709057</v>
+        <v>624132.0451549354</v>
       </c>
       <c r="AE3" t="n">
-        <v>716018.1651816617</v>
+        <v>853964.9989435098</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.111775636137963e-06</v>
+        <v>1.925363049002521e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.85416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>647682.3964345297</v>
+        <v>772463.777991744</v>
       </c>
     </row>
     <row r="4">
@@ -5914,28 +5914,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>477.919134377128</v>
+        <v>568.7342449718693</v>
       </c>
       <c r="AB4" t="n">
-        <v>653.9100439589406</v>
+        <v>778.1672847545817</v>
       </c>
       <c r="AC4" t="n">
-        <v>591.5017871320094</v>
+        <v>703.9000912622474</v>
       </c>
       <c r="AD4" t="n">
-        <v>477919.134377128</v>
+        <v>568734.2449718693</v>
       </c>
       <c r="AE4" t="n">
-        <v>653910.0439589407</v>
+        <v>778167.2847545817</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.185736254983185e-06</v>
+        <v>2.053447383626562e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.67361111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>591501.7871320094</v>
+        <v>703900.0912622474</v>
       </c>
     </row>
     <row r="5">
@@ -6020,28 +6020,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>459.7473776828446</v>
+        <v>540.4720099422767</v>
       </c>
       <c r="AB5" t="n">
-        <v>629.0466447684965</v>
+        <v>739.4976479452815</v>
       </c>
       <c r="AC5" t="n">
-        <v>569.0113158643013</v>
+        <v>668.9210303168505</v>
       </c>
       <c r="AD5" t="n">
-        <v>459747.3776828446</v>
+        <v>540472.0099422768</v>
       </c>
       <c r="AE5" t="n">
-        <v>629046.6447684965</v>
+        <v>739497.6479452816</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.224056693150788e-06</v>
+        <v>2.119810373848029e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.12673611111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>569011.3158643013</v>
+        <v>668921.0303168505</v>
       </c>
     </row>
     <row r="6">
@@ -6126,28 +6126,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>433.8161780687058</v>
+        <v>524.5459478088752</v>
       </c>
       <c r="AB6" t="n">
-        <v>593.5664334526447</v>
+        <v>717.7069071260881</v>
       </c>
       <c r="AC6" t="n">
-        <v>536.917286119645</v>
+        <v>649.209967217944</v>
       </c>
       <c r="AD6" t="n">
-        <v>433816.1780687058</v>
+        <v>524545.9478088752</v>
       </c>
       <c r="AE6" t="n">
-        <v>593566.4334526446</v>
+        <v>717706.9071260882</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.25368440432385e-06</v>
+        <v>2.171119377629844e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.71875</v>
       </c>
       <c r="AH6" t="n">
-        <v>536917.286119645</v>
+        <v>649209.9672179441</v>
       </c>
     </row>
     <row r="7">
@@ -6232,28 +6232,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>423.2668821347057</v>
+        <v>503.9061735395662</v>
       </c>
       <c r="AB7" t="n">
-        <v>579.1324213536554</v>
+        <v>689.4666574082426</v>
       </c>
       <c r="AC7" t="n">
-        <v>523.8608358771202</v>
+        <v>623.6649272977305</v>
       </c>
       <c r="AD7" t="n">
-        <v>423266.8821347057</v>
+        <v>503906.1735395662</v>
       </c>
       <c r="AE7" t="n">
-        <v>579132.4213536554</v>
+        <v>689466.6574082426</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.270997418921312e-06</v>
+        <v>2.201101900622151e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.49305555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>523860.8358771201</v>
+        <v>623664.9272977305</v>
       </c>
     </row>
     <row r="8">
@@ -6338,28 +6338,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>416.2803420897214</v>
+        <v>496.9196334945819</v>
       </c>
       <c r="AB8" t="n">
-        <v>569.5731290397147</v>
+        <v>679.9073650943019</v>
       </c>
       <c r="AC8" t="n">
-        <v>515.2138690050709</v>
+        <v>615.0179604256812</v>
       </c>
       <c r="AD8" t="n">
-        <v>416280.3420897215</v>
+        <v>496919.633494582</v>
       </c>
       <c r="AE8" t="n">
-        <v>569573.1290397147</v>
+        <v>679907.3650943019</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.278072332836313e-06</v>
+        <v>2.213354172918868e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.39756944444444</v>
       </c>
       <c r="AH8" t="n">
-        <v>515213.8690050709</v>
+        <v>615017.9604256812</v>
       </c>
     </row>
     <row r="9">
@@ -6444,28 +6444,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>404.4513615805813</v>
+        <v>485.0906529854417</v>
       </c>
       <c r="AB9" t="n">
-        <v>553.3881960493198</v>
+        <v>663.7224321039072</v>
       </c>
       <c r="AC9" t="n">
-        <v>500.5736033035832</v>
+        <v>600.3776947241936</v>
       </c>
       <c r="AD9" t="n">
-        <v>404451.3615805813</v>
+        <v>485090.6529854417</v>
       </c>
       <c r="AE9" t="n">
-        <v>553388.1960493198</v>
+        <v>663722.4321039072</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.292511918232801e-06</v>
+        <v>2.23836051706029e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.21527777777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>500573.6033035832</v>
+        <v>600377.6947241935</v>
       </c>
     </row>
     <row r="10">
@@ -6550,28 +6550,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>397.0079943605149</v>
+        <v>477.6472857653754</v>
       </c>
       <c r="AB10" t="n">
-        <v>543.2038526406392</v>
+        <v>653.5380886952264</v>
       </c>
       <c r="AC10" t="n">
-        <v>491.3612393360112</v>
+        <v>591.1653307566215</v>
       </c>
       <c r="AD10" t="n">
-        <v>397007.9943605149</v>
+        <v>477647.2857653754</v>
       </c>
       <c r="AE10" t="n">
-        <v>543203.8526406392</v>
+        <v>653538.0886952264</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.299007317014834e-06</v>
+        <v>2.24960919026103e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.13715277777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>491361.2393360112</v>
+        <v>591165.3307566216</v>
       </c>
     </row>
     <row r="11">
@@ -6656,28 +6656,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>398.3920152344998</v>
+        <v>479.0313066393603</v>
       </c>
       <c r="AB11" t="n">
-        <v>545.0975310591169</v>
+        <v>655.4317671137042</v>
       </c>
       <c r="AC11" t="n">
-        <v>493.0741877440238</v>
+        <v>592.8782791646341</v>
       </c>
       <c r="AD11" t="n">
-        <v>398392.0152344998</v>
+        <v>479031.3066393603</v>
       </c>
       <c r="AE11" t="n">
-        <v>545097.5310591169</v>
+        <v>655431.7671137041</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.298548534201233e-06</v>
+        <v>2.248814674310049e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.14583333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>493074.1877440239</v>
+        <v>592878.2791646342</v>
       </c>
     </row>
   </sheetData>
@@ -6953,28 +6953,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>387.5426561154518</v>
+        <v>469.4956952838695</v>
       </c>
       <c r="AB2" t="n">
-        <v>530.2529592724918</v>
+        <v>642.3847229756391</v>
       </c>
       <c r="AC2" t="n">
-        <v>479.646361054227</v>
+        <v>581.0764266074644</v>
       </c>
       <c r="AD2" t="n">
-        <v>387542.6561154518</v>
+        <v>469495.6952838695</v>
       </c>
       <c r="AE2" t="n">
-        <v>530252.9592724919</v>
+        <v>642384.722975639</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.285441302641361e-06</v>
+        <v>2.432331558350863e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.19444444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>479646.361054227</v>
+        <v>581076.4266074644</v>
       </c>
     </row>
     <row r="3">
@@ -7059,28 +7059,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>324.8907120549769</v>
+        <v>397.7283856106791</v>
       </c>
       <c r="AB3" t="n">
-        <v>444.529805400252</v>
+        <v>544.1895237305329</v>
       </c>
       <c r="AC3" t="n">
-        <v>402.1045046743515</v>
+        <v>492.2528393604836</v>
       </c>
       <c r="AD3" t="n">
-        <v>324890.7120549768</v>
+        <v>397728.3856106792</v>
       </c>
       <c r="AE3" t="n">
-        <v>444529.805400252</v>
+        <v>544189.5237305328</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.422774544855727e-06</v>
+        <v>2.69219560532232e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.44097222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>402104.5046743515</v>
+        <v>492252.8393604836</v>
       </c>
     </row>
     <row r="4">
@@ -7165,28 +7165,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>311.8691669882263</v>
+        <v>384.7068405439286</v>
       </c>
       <c r="AB4" t="n">
-        <v>426.7131529698997</v>
+        <v>526.3728713001805</v>
       </c>
       <c r="AC4" t="n">
-        <v>385.9882485461233</v>
+        <v>476.1365832322553</v>
       </c>
       <c r="AD4" t="n">
-        <v>311869.1669882263</v>
+        <v>384706.8405439286</v>
       </c>
       <c r="AE4" t="n">
-        <v>426713.1529698997</v>
+        <v>526372.8713001804</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.451712332208725e-06</v>
+        <v>2.746952126108537e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.11111111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>385988.2485461233</v>
+        <v>476136.5832322553</v>
       </c>
     </row>
   </sheetData>
@@ -7462,28 +7462,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>479.7446840397035</v>
+        <v>574.7109918294282</v>
       </c>
       <c r="AB2" t="n">
-        <v>656.4078415448436</v>
+        <v>786.3449334805562</v>
       </c>
       <c r="AC2" t="n">
-        <v>593.7611984219947</v>
+        <v>711.2972766712167</v>
       </c>
       <c r="AD2" t="n">
-        <v>479744.6840397036</v>
+        <v>574710.9918294281</v>
       </c>
       <c r="AE2" t="n">
-        <v>656407.8415448435</v>
+        <v>786344.9334805561</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.13643030479293e-06</v>
+        <v>2.070329211331206e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.6875</v>
       </c>
       <c r="AH2" t="n">
-        <v>593761.1984219947</v>
+        <v>711297.2766712167</v>
       </c>
     </row>
     <row r="3">
@@ -7568,28 +7568,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>397.4731704806912</v>
+        <v>482.7722552908511</v>
       </c>
       <c r="AB3" t="n">
-        <v>543.8403271303864</v>
+        <v>660.5502980976808</v>
       </c>
       <c r="AC3" t="n">
-        <v>491.9369695937546</v>
+        <v>597.5083047354034</v>
       </c>
       <c r="AD3" t="n">
-        <v>397473.1704806912</v>
+        <v>482772.2552908512</v>
       </c>
       <c r="AE3" t="n">
-        <v>543840.3271303864</v>
+        <v>660550.2980976808</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.298976337772975e-06</v>
+        <v>2.366452782521883e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.22222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>491936.9695937546</v>
+        <v>597508.3047354034</v>
       </c>
     </row>
     <row r="4">
@@ -7674,28 +7674,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>365.6740307383602</v>
+        <v>451.0583668945407</v>
       </c>
       <c r="AB4" t="n">
-        <v>500.3313412558939</v>
+        <v>617.1579568758375</v>
       </c>
       <c r="AC4" t="n">
-        <v>452.5804202658784</v>
+        <v>558.2572676582395</v>
       </c>
       <c r="AD4" t="n">
-        <v>365674.0307383602</v>
+        <v>451058.3668945407</v>
       </c>
       <c r="AE4" t="n">
-        <v>500331.3412558939</v>
+        <v>617157.9568758375</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.35333878362691e-06</v>
+        <v>2.465489352715531e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.53645833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>452580.4202658784</v>
+        <v>558257.2676582395</v>
       </c>
     </row>
     <row r="5">
@@ -7780,28 +7780,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>348.3172797783112</v>
+        <v>424.2050746640703</v>
       </c>
       <c r="AB5" t="n">
-        <v>476.5830688665449</v>
+        <v>580.4160977624655</v>
       </c>
       <c r="AC5" t="n">
-        <v>431.0986496624591</v>
+        <v>525.0220000111245</v>
       </c>
       <c r="AD5" t="n">
-        <v>348317.2797783112</v>
+        <v>424205.0746640703</v>
       </c>
       <c r="AE5" t="n">
-        <v>476583.0688665449</v>
+        <v>580416.0977624655</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.386255257479672e-06</v>
+        <v>2.525456019447294e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.13715277777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>431098.6496624592</v>
+        <v>525022.0000111245</v>
       </c>
     </row>
     <row r="6">
@@ -7886,28 +7886,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>343.0464929076442</v>
+        <v>418.9342877934033</v>
       </c>
       <c r="AB6" t="n">
-        <v>469.3713457393926</v>
+        <v>573.2043746353135</v>
       </c>
       <c r="AC6" t="n">
-        <v>424.5752032688454</v>
+        <v>518.4985536175109</v>
       </c>
       <c r="AD6" t="n">
-        <v>343046.4929076442</v>
+        <v>418934.2877934033</v>
       </c>
       <c r="AE6" t="n">
-        <v>469371.3457393926</v>
+        <v>573204.3746353134</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.394890354379183e-06</v>
+        <v>2.541187290672932e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.04166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>424575.2032688454</v>
+        <v>518498.5536175108</v>
       </c>
     </row>
     <row r="7">
@@ -7992,28 +7992,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>344.4909197625017</v>
+        <v>420.3787146482608</v>
       </c>
       <c r="AB7" t="n">
-        <v>471.3476742858242</v>
+        <v>575.1807031817448</v>
       </c>
       <c r="AC7" t="n">
-        <v>426.3629137926</v>
+        <v>520.2862641412654</v>
       </c>
       <c r="AD7" t="n">
-        <v>344490.9197625017</v>
+        <v>420378.7146482608</v>
       </c>
       <c r="AE7" t="n">
-        <v>471347.6742858242</v>
+        <v>575180.7031817448</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.394529484658009e-06</v>
+        <v>2.540529864412756e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.04166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>426362.9137926</v>
+        <v>520286.2641412654</v>
       </c>
     </row>
   </sheetData>
@@ -8289,28 +8289,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>320.3209719489976</v>
+        <v>399.3742294520113</v>
       </c>
       <c r="AB2" t="n">
-        <v>438.2772853845462</v>
+        <v>546.4414398837492</v>
       </c>
       <c r="AC2" t="n">
-        <v>396.4487163934778</v>
+        <v>494.289835796621</v>
       </c>
       <c r="AD2" t="n">
-        <v>320320.9719489976</v>
+        <v>399374.2294520113</v>
       </c>
       <c r="AE2" t="n">
-        <v>438277.2853845462</v>
+        <v>546441.4398837492</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.411462013723829e-06</v>
+        <v>2.766010773177784e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.21354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>396448.7163934777</v>
+        <v>494289.835796621</v>
       </c>
     </row>
     <row r="3">
@@ -8395,28 +8395,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>287.6485579056279</v>
+        <v>357.9845062961459</v>
       </c>
       <c r="AB3" t="n">
-        <v>393.5734470852295</v>
+        <v>489.8101946761801</v>
       </c>
       <c r="AC3" t="n">
-        <v>356.0113496792166</v>
+        <v>443.0633971492106</v>
       </c>
       <c r="AD3" t="n">
-        <v>287648.5579056279</v>
+        <v>357984.5062961459</v>
       </c>
       <c r="AE3" t="n">
-        <v>393573.4470852294</v>
+        <v>489810.1946761801</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.493593717569651e-06</v>
+        <v>2.926962449842207e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.26736111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>356011.3496792166</v>
+        <v>443063.3971492106</v>
       </c>
     </row>
   </sheetData>
@@ -8692,28 +8692,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>734.5309610308369</v>
+        <v>856.6394389110301</v>
       </c>
       <c r="AB2" t="n">
-        <v>1005.017666101347</v>
+        <v>1172.091872582872</v>
       </c>
       <c r="AC2" t="n">
-        <v>909.1001905997872</v>
+        <v>1060.229069304837</v>
       </c>
       <c r="AD2" t="n">
-        <v>734530.9610308369</v>
+        <v>856639.4389110301</v>
       </c>
       <c r="AE2" t="n">
-        <v>1005017.666101347</v>
+        <v>1172091.872582872</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.764439884235883e-07</v>
+        <v>1.507905411324474e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.69791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>909100.1905997872</v>
+        <v>1060229.069304837</v>
       </c>
     </row>
     <row r="3">
@@ -8798,28 +8798,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>553.2414763864083</v>
+        <v>654.8279490859769</v>
       </c>
       <c r="AB3" t="n">
-        <v>756.9693952832426</v>
+        <v>895.9644889096669</v>
       </c>
       <c r="AC3" t="n">
-        <v>684.7252986106281</v>
+        <v>810.4548955821856</v>
       </c>
       <c r="AD3" t="n">
-        <v>553241.4763864083</v>
+        <v>654827.9490859769</v>
       </c>
       <c r="AE3" t="n">
-        <v>756969.3952832427</v>
+        <v>895964.4889096669</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.084918297033491e-06</v>
+        <v>1.866581541490444e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.14930555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>684725.2986106281</v>
+        <v>810454.8955821856</v>
       </c>
     </row>
     <row r="4">
@@ -8904,28 +8904,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>492.6853831912373</v>
+        <v>594.2717663822549</v>
       </c>
       <c r="AB4" t="n">
-        <v>674.1138770273262</v>
+        <v>813.1088481842021</v>
       </c>
       <c r="AC4" t="n">
-        <v>609.7773947286061</v>
+        <v>735.506880918937</v>
       </c>
       <c r="AD4" t="n">
-        <v>492685.3831912373</v>
+        <v>594271.7663822549</v>
       </c>
       <c r="AE4" t="n">
-        <v>674113.8770273263</v>
+        <v>813108.8481842021</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.165680555017699e-06</v>
+        <v>2.005531488610525e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.82118055555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>609777.3947286061</v>
+        <v>735506.880918937</v>
       </c>
     </row>
     <row r="5">
@@ -9010,28 +9010,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>468.5300520958385</v>
+        <v>549.9357935245184</v>
       </c>
       <c r="AB5" t="n">
-        <v>641.0634873646042</v>
+        <v>752.4464141551695</v>
       </c>
       <c r="AC5" t="n">
-        <v>579.8812878687809</v>
+        <v>680.6339844533744</v>
       </c>
       <c r="AD5" t="n">
-        <v>468530.0520958385</v>
+        <v>549935.7935245184</v>
       </c>
       <c r="AE5" t="n">
-        <v>641063.4873646041</v>
+        <v>752446.4141551695</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.2144489940612e-06</v>
+        <v>2.089436671493703e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.10069444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>579881.2878687809</v>
+        <v>680633.9844533744</v>
       </c>
     </row>
     <row r="6">
@@ -9116,28 +9116,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>450.1155167687251</v>
+        <v>541.6115343242982</v>
       </c>
       <c r="AB6" t="n">
-        <v>615.8679077380846</v>
+        <v>741.0567954770311</v>
       </c>
       <c r="AC6" t="n">
-        <v>557.0903389995983</v>
+        <v>670.3313749964473</v>
       </c>
       <c r="AD6" t="n">
-        <v>450115.5167687251</v>
+        <v>541611.5343242981</v>
       </c>
       <c r="AE6" t="n">
-        <v>615867.9077380846</v>
+        <v>741056.795477031</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.229189601740688e-06</v>
+        <v>2.114797609990287e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.90104166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>557090.3389995983</v>
+        <v>670331.3749964472</v>
       </c>
     </row>
     <row r="7">
@@ -9222,28 +9222,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>439.1078577709816</v>
+        <v>530.6038753265548</v>
       </c>
       <c r="AB7" t="n">
-        <v>600.8067430737306</v>
+        <v>725.9956308126771</v>
       </c>
       <c r="AC7" t="n">
-        <v>543.466590752333</v>
+        <v>656.7076267491819</v>
       </c>
       <c r="AD7" t="n">
-        <v>439107.8577709816</v>
+        <v>530603.8753265548</v>
       </c>
       <c r="AE7" t="n">
-        <v>600806.7430737306</v>
+        <v>725995.6308126771</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.246418883443986e-06</v>
+        <v>2.144440265375904e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>543466.5907523329</v>
+        <v>656707.6267491819</v>
       </c>
     </row>
     <row r="8">
@@ -9328,28 +9328,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>428.8179078335942</v>
+        <v>510.1383084077024</v>
       </c>
       <c r="AB8" t="n">
-        <v>586.7275796088448</v>
+        <v>697.9937392772125</v>
       </c>
       <c r="AC8" t="n">
-        <v>530.7311228883059</v>
+        <v>631.3781964409606</v>
       </c>
       <c r="AD8" t="n">
-        <v>428817.9078335942</v>
+        <v>510138.3084077024</v>
       </c>
       <c r="AE8" t="n">
-        <v>586727.5796088448</v>
+        <v>697993.7392772125</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.262882419293804e-06</v>
+        <v>2.17276546941105e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.44965277777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>530731.1228883059</v>
+        <v>631378.1964409605</v>
       </c>
     </row>
     <row r="9">
@@ -9434,28 +9434,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>420.7356734147314</v>
+        <v>502.0560739888395</v>
       </c>
       <c r="AB9" t="n">
-        <v>575.6691099139391</v>
+        <v>686.9352695823068</v>
       </c>
       <c r="AC9" t="n">
-        <v>520.7280580204223</v>
+        <v>621.3751315730768</v>
       </c>
       <c r="AD9" t="n">
-        <v>420735.6734147314</v>
+        <v>502056.0739888395</v>
       </c>
       <c r="AE9" t="n">
-        <v>575669.1099139391</v>
+        <v>686935.2695823067</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.272071369535563e-06</v>
+        <v>2.188574885616712e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.328125</v>
       </c>
       <c r="AH9" t="n">
-        <v>520728.0580204222</v>
+        <v>621375.1315730768</v>
       </c>
     </row>
     <row r="10">
@@ -9540,28 +9540,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>412.7517309261047</v>
+        <v>494.0721315002128</v>
       </c>
       <c r="AB10" t="n">
-        <v>564.7451275743165</v>
+        <v>676.011287242684</v>
       </c>
       <c r="AC10" t="n">
-        <v>510.8466452233876</v>
+        <v>611.4937187760421</v>
       </c>
       <c r="AD10" t="n">
-        <v>412751.7309261047</v>
+        <v>494072.1315002128</v>
       </c>
       <c r="AE10" t="n">
-        <v>564745.1275743165</v>
+        <v>676011.287242684</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.278771645753512e-06</v>
+        <v>2.200102584933341e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.24131944444444</v>
       </c>
       <c r="AH10" t="n">
-        <v>510846.6452233876</v>
+        <v>611493.7187760421</v>
       </c>
     </row>
     <row r="11">
@@ -9646,28 +9646,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>405.6434459339862</v>
+        <v>486.9638465080943</v>
       </c>
       <c r="AB11" t="n">
-        <v>555.0192584526985</v>
+        <v>666.2854181210662</v>
       </c>
       <c r="AC11" t="n">
-        <v>502.0489994003938</v>
+        <v>602.6960729530484</v>
       </c>
       <c r="AD11" t="n">
-        <v>405643.4459339862</v>
+        <v>486963.8465080943</v>
       </c>
       <c r="AE11" t="n">
-        <v>555019.2584526985</v>
+        <v>666285.4181210662</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.285759076666516e-06</v>
+        <v>2.212124328506397e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.15451388888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>502048.9994003938</v>
+        <v>602696.0729530484</v>
       </c>
     </row>
     <row r="12">
@@ -9752,28 +9752,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>406.3201157743006</v>
+        <v>487.6405163484088</v>
       </c>
       <c r="AB12" t="n">
-        <v>555.9451079807832</v>
+        <v>667.211267649151</v>
       </c>
       <c r="AC12" t="n">
-        <v>502.8864871489562</v>
+        <v>603.5335607016108</v>
       </c>
       <c r="AD12" t="n">
-        <v>406320.1157743006</v>
+        <v>487640.5163484088</v>
       </c>
       <c r="AE12" t="n">
-        <v>555945.1079807832</v>
+        <v>667211.2676491509</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.285543710645225e-06</v>
+        <v>2.211753795314077e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.15451388888889</v>
       </c>
       <c r="AH12" t="n">
-        <v>502886.4871489562</v>
+        <v>603533.5607016108</v>
       </c>
     </row>
   </sheetData>
@@ -10049,28 +10049,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>279.4487697002268</v>
+        <v>356.9207081919468</v>
       </c>
       <c r="AB2" t="n">
-        <v>382.3541351134752</v>
+        <v>488.3546591785549</v>
       </c>
       <c r="AC2" t="n">
-        <v>345.8627930956433</v>
+        <v>441.7467759166217</v>
       </c>
       <c r="AD2" t="n">
-        <v>279448.7697002268</v>
+        <v>356920.7081919468</v>
       </c>
       <c r="AE2" t="n">
-        <v>382354.1351134752</v>
+        <v>488354.6591785549</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.4893686963749e-06</v>
+        <v>2.985678411780289e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.69270833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>345862.7930956433</v>
+        <v>441746.7759166217</v>
       </c>
     </row>
     <row r="3">
@@ -10155,28 +10155,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>274.5059540679174</v>
+        <v>343.3605065852671</v>
       </c>
       <c r="AB3" t="n">
-        <v>375.5911567037137</v>
+        <v>469.8009931064221</v>
       </c>
       <c r="AC3" t="n">
-        <v>339.7452638534097</v>
+        <v>424.9638456941794</v>
       </c>
       <c r="AD3" t="n">
-        <v>274505.9540679174</v>
+        <v>343360.5065852671</v>
       </c>
       <c r="AE3" t="n">
-        <v>375591.1567037137</v>
+        <v>469800.9931064221</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.509529743200287e-06</v>
+        <v>3.026094463502044e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.46701388888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>339745.2638534097</v>
+        <v>424963.8456941794</v>
       </c>
     </row>
   </sheetData>
@@ -10452,28 +10452,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>585.2540305383557</v>
+        <v>693.040207525228</v>
       </c>
       <c r="AB2" t="n">
-        <v>800.7703841681514</v>
+        <v>948.2481867121141</v>
       </c>
       <c r="AC2" t="n">
-        <v>724.3459825914352</v>
+        <v>857.748710646998</v>
       </c>
       <c r="AD2" t="n">
-        <v>585254.0305383557</v>
+        <v>693040.2075252279</v>
       </c>
       <c r="AE2" t="n">
-        <v>800770.3841681514</v>
+        <v>948248.1867121141</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.014464074632532e-06</v>
+        <v>1.796691257854632e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.28472222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>724345.9825914352</v>
+        <v>857748.710646998</v>
       </c>
     </row>
     <row r="3">
@@ -10558,28 +10558,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>466.3783759343572</v>
+        <v>554.6213902871712</v>
       </c>
       <c r="AB3" t="n">
-        <v>638.1194691152127</v>
+        <v>758.8574543597712</v>
       </c>
       <c r="AC3" t="n">
-        <v>577.2182425891558</v>
+        <v>686.4331639788003</v>
       </c>
       <c r="AD3" t="n">
-        <v>466378.3759343572</v>
+        <v>554621.3902871711</v>
       </c>
       <c r="AE3" t="n">
-        <v>638119.4691152127</v>
+        <v>758857.4543597712</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.196075957429636e-06</v>
+        <v>2.118339397304293e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.05555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>577218.2425891558</v>
+        <v>686433.1639788003</v>
       </c>
     </row>
     <row r="4">
@@ -10664,28 +10664,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>426.3143755100757</v>
+        <v>504.8284789731463</v>
       </c>
       <c r="AB4" t="n">
-        <v>583.3021362357557</v>
+        <v>690.7285963917111</v>
       </c>
       <c r="AC4" t="n">
-        <v>527.6325990231044</v>
+        <v>624.8064285957593</v>
       </c>
       <c r="AD4" t="n">
-        <v>426314.3755100757</v>
+        <v>504828.4789731464</v>
       </c>
       <c r="AE4" t="n">
-        <v>583302.1362357558</v>
+        <v>690728.5963917112</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.267352401842472e-06</v>
+        <v>2.244575276691043e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.03993055555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>527632.5990231044</v>
+        <v>624806.4285957592</v>
       </c>
     </row>
     <row r="5">
@@ -10770,28 +10770,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>400.6443160844365</v>
+        <v>488.8872409286994</v>
       </c>
       <c r="AB5" t="n">
-        <v>548.179228446501</v>
+        <v>668.9170912215113</v>
       </c>
       <c r="AC5" t="n">
-        <v>495.8617722579455</v>
+        <v>605.0765828663635</v>
       </c>
       <c r="AD5" t="n">
-        <v>400644.3160844365</v>
+        <v>488887.2409286994</v>
       </c>
       <c r="AE5" t="n">
-        <v>548179.2284465011</v>
+        <v>668917.0912215114</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.300266445806933e-06</v>
+        <v>2.302868494292673e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.60590277777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>495861.7722579455</v>
+        <v>605076.5828663636</v>
       </c>
     </row>
     <row r="6">
@@ -10876,28 +10876,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>386.698993312621</v>
+        <v>465.1277559211201</v>
       </c>
       <c r="AB6" t="n">
-        <v>529.0986226058828</v>
+        <v>636.4083156396406</v>
       </c>
       <c r="AC6" t="n">
-        <v>478.6021926589573</v>
+        <v>575.6703991996734</v>
       </c>
       <c r="AD6" t="n">
-        <v>386698.993312621</v>
+        <v>465127.7559211201</v>
       </c>
       <c r="AE6" t="n">
-        <v>529098.6226058828</v>
+        <v>636408.3156396406</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.3234530587887e-06</v>
+        <v>2.343933708808712e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.31944444444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>478602.1926589573</v>
+        <v>575670.3991996734</v>
       </c>
     </row>
     <row r="7">
@@ -10982,28 +10982,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>376.9978815122094</v>
+        <v>455.4266441207084</v>
       </c>
       <c r="AB7" t="n">
-        <v>515.8251334577125</v>
+        <v>623.1348264914702</v>
       </c>
       <c r="AC7" t="n">
-        <v>466.5955066856293</v>
+        <v>563.6637132263454</v>
       </c>
       <c r="AD7" t="n">
-        <v>376997.8815122094</v>
+        <v>455426.6441207085</v>
       </c>
       <c r="AE7" t="n">
-        <v>515825.1334577125</v>
+        <v>623134.8264914702</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.334449285116963e-06</v>
+        <v>2.363408842731555e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.18055555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>466595.5066856294</v>
+        <v>563663.7132263454</v>
       </c>
     </row>
     <row r="8">
@@ -11088,28 +11088,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>371.7676986429929</v>
+        <v>450.1964612514919</v>
       </c>
       <c r="AB8" t="n">
-        <v>508.668966516667</v>
+        <v>615.9786595504247</v>
       </c>
       <c r="AC8" t="n">
-        <v>460.1223142736939</v>
+        <v>557.19052081441</v>
       </c>
       <c r="AD8" t="n">
-        <v>371767.6986429929</v>
+        <v>450196.4612514919</v>
       </c>
       <c r="AE8" t="n">
-        <v>508668.9665166669</v>
+        <v>615978.6595504247</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.342982555774416e-06</v>
+        <v>2.378521899146792e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.07638888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>460122.3142736938</v>
+        <v>557190.5208144099</v>
       </c>
     </row>
   </sheetData>
@@ -11385,28 +11385,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>657.2911506849877</v>
+        <v>777.0615179557315</v>
       </c>
       <c r="AB2" t="n">
-        <v>899.3347500062182</v>
+        <v>1063.209850401735</v>
       </c>
       <c r="AC2" t="n">
-        <v>813.5035036898732</v>
+        <v>961.7385945037902</v>
       </c>
       <c r="AD2" t="n">
-        <v>657291.1506849877</v>
+        <v>777061.5179557315</v>
       </c>
       <c r="AE2" t="n">
-        <v>899334.7500062182</v>
+        <v>1063209.850401735</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.425397087198662e-07</v>
+        <v>1.643706950190005e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.44791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>813503.5036898733</v>
+        <v>961738.5945037901</v>
       </c>
     </row>
     <row r="3">
@@ -11491,28 +11491,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>504.7762217397355</v>
+        <v>604.7127978234205</v>
       </c>
       <c r="AB3" t="n">
-        <v>690.6570957395322</v>
+        <v>827.3947280278026</v>
       </c>
       <c r="AC3" t="n">
-        <v>624.7417518654725</v>
+        <v>748.4293364406226</v>
       </c>
       <c r="AD3" t="n">
-        <v>504776.2217397356</v>
+        <v>604712.7978234205</v>
       </c>
       <c r="AE3" t="n">
-        <v>690657.0957395323</v>
+        <v>827394.7280278025</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.137911880478465e-06</v>
+        <v>1.98441895799441e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.59375</v>
       </c>
       <c r="AH3" t="n">
-        <v>624741.7518654724</v>
+        <v>748429.3364406226</v>
       </c>
     </row>
     <row r="4">
@@ -11597,28 +11597,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>459.6724595899216</v>
+        <v>549.5215926337603</v>
       </c>
       <c r="AB4" t="n">
-        <v>628.9441385286063</v>
+        <v>751.8796862231807</v>
       </c>
       <c r="AC4" t="n">
-        <v>568.9185926760779</v>
+        <v>680.1213442398068</v>
       </c>
       <c r="AD4" t="n">
-        <v>459672.4595899216</v>
+        <v>549521.5926337603</v>
       </c>
       <c r="AE4" t="n">
-        <v>628944.1385286064</v>
+        <v>751879.6862231806</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.21447632108904e-06</v>
+        <v>2.117940656873216e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.421875</v>
       </c>
       <c r="AH4" t="n">
-        <v>568918.5926760779</v>
+        <v>680121.3442398069</v>
       </c>
     </row>
     <row r="5">
@@ -11703,28 +11703,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>432.7891586827085</v>
+        <v>522.7235430725676</v>
       </c>
       <c r="AB5" t="n">
-        <v>592.1612202198255</v>
+        <v>715.2134125670493</v>
       </c>
       <c r="AC5" t="n">
-        <v>535.6461844655371</v>
+        <v>646.9544482799782</v>
       </c>
       <c r="AD5" t="n">
-        <v>432789.1586827085</v>
+        <v>522723.5430725677</v>
       </c>
       <c r="AE5" t="n">
-        <v>592161.2202198255</v>
+        <v>715213.4125670493</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.249894382918764e-06</v>
+        <v>2.179706664027277e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.92708333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>535646.1844655371</v>
+        <v>646954.4482799782</v>
       </c>
     </row>
     <row r="6">
@@ -11809,28 +11809,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>419.5668322772685</v>
+        <v>509.5012166671276</v>
       </c>
       <c r="AB6" t="n">
-        <v>574.0698499040307</v>
+        <v>697.1220422512544</v>
       </c>
       <c r="AC6" t="n">
-        <v>519.2814291412839</v>
+        <v>630.5896929557251</v>
       </c>
       <c r="AD6" t="n">
-        <v>419566.8322772685</v>
+        <v>509501.2166671276</v>
       </c>
       <c r="AE6" t="n">
-        <v>574069.8499040307</v>
+        <v>697122.0422512543</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.27475771606833e-06</v>
+        <v>2.223066145993651e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.59722222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>519281.4291412839</v>
+        <v>630589.6929557251</v>
       </c>
     </row>
     <row r="7">
@@ -11915,28 +11915,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>407.9566115008301</v>
+        <v>487.8888937054147</v>
       </c>
       <c r="AB7" t="n">
-        <v>558.1842336309169</v>
+        <v>667.5511085066421</v>
       </c>
       <c r="AC7" t="n">
-        <v>504.9119137896736</v>
+        <v>603.8409676246326</v>
       </c>
       <c r="AD7" t="n">
-        <v>407956.6115008302</v>
+        <v>487888.8937054147</v>
       </c>
       <c r="AE7" t="n">
-        <v>558184.2336309169</v>
+        <v>667551.108506642</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.292357055807533e-06</v>
+        <v>2.253757857738477e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.37152777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>504911.9137896736</v>
+        <v>603840.9676246326</v>
       </c>
     </row>
     <row r="8">
@@ -12021,28 +12021,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>398.9504842059942</v>
+        <v>478.8827664105787</v>
       </c>
       <c r="AB8" t="n">
-        <v>545.8616529438276</v>
+        <v>655.2285278195529</v>
       </c>
       <c r="AC8" t="n">
-        <v>493.7653829085096</v>
+        <v>592.6944367434685</v>
       </c>
       <c r="AD8" t="n">
-        <v>398950.4842059942</v>
+        <v>478882.7664105787</v>
       </c>
       <c r="AE8" t="n">
-        <v>545861.6529438276</v>
+        <v>655228.5278195529</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.301961127631973e-06</v>
+        <v>2.270506520380391e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.25</v>
       </c>
       <c r="AH8" t="n">
-        <v>493765.3829085096</v>
+        <v>592694.4367434685</v>
       </c>
     </row>
     <row r="9">
@@ -12127,28 +12127,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>390.2819348108717</v>
+        <v>470.2142170154563</v>
       </c>
       <c r="AB9" t="n">
-        <v>534.0009612320124</v>
+        <v>643.3678361077376</v>
       </c>
       <c r="AC9" t="n">
-        <v>483.0366589670846</v>
+        <v>581.9657128020434</v>
       </c>
       <c r="AD9" t="n">
-        <v>390281.9348108717</v>
+        <v>470214.2170154563</v>
       </c>
       <c r="AE9" t="n">
-        <v>534000.9612320124</v>
+        <v>643367.8361077376</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.30910324195827e-06</v>
+        <v>2.282961744121712e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.16319444444444</v>
       </c>
       <c r="AH9" t="n">
-        <v>483036.6589670846</v>
+        <v>581965.7128020434</v>
       </c>
     </row>
     <row r="10">
@@ -12233,28 +12233,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>390.4095522966122</v>
+        <v>470.3418345011967</v>
       </c>
       <c r="AB10" t="n">
-        <v>534.1755731060886</v>
+        <v>643.5424479818137</v>
       </c>
       <c r="AC10" t="n">
-        <v>483.1946061289682</v>
+        <v>582.123659963927</v>
       </c>
       <c r="AD10" t="n">
-        <v>390409.5522966122</v>
+        <v>470341.8345011967</v>
       </c>
       <c r="AE10" t="n">
-        <v>534175.5731060886</v>
+        <v>643542.4479818137</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.311662702723666e-06</v>
+        <v>2.287425220206486e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.12847222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>483194.6061289682</v>
+        <v>582123.659963927</v>
       </c>
     </row>
   </sheetData>
@@ -12530,28 +12530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>828.1553260792219</v>
+        <v>952.2045194739653</v>
       </c>
       <c r="AB2" t="n">
-        <v>1133.118652776023</v>
+        <v>1302.848231842882</v>
       </c>
       <c r="AC2" t="n">
-        <v>1024.975398897096</v>
+        <v>1178.506225154774</v>
       </c>
       <c r="AD2" t="n">
-        <v>828155.3260792219</v>
+        <v>952204.5194739653</v>
       </c>
       <c r="AE2" t="n">
-        <v>1133118.652776023</v>
+        <v>1302848.231842882</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.156957424545995e-07</v>
+        <v>1.386628700812836e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.03472222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1024975.398897096</v>
+        <v>1178506.225154774</v>
       </c>
     </row>
     <row r="3">
@@ -12636,28 +12636,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>593.5904969935112</v>
+        <v>696.9647502320048</v>
       </c>
       <c r="AB3" t="n">
-        <v>812.1767053510387</v>
+        <v>953.6179191821311</v>
       </c>
       <c r="AC3" t="n">
-        <v>734.6637004895001</v>
+        <v>862.6059633865433</v>
       </c>
       <c r="AD3" t="n">
-        <v>593590.4969935112</v>
+        <v>696964.7502320048</v>
       </c>
       <c r="AE3" t="n">
-        <v>812176.7053510387</v>
+        <v>953617.9191821311</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.034412971733147e-06</v>
+        <v>1.758433494800436e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.74826388888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>734663.7004895001</v>
+        <v>862605.9633865433</v>
       </c>
     </row>
     <row r="4">
@@ -12742,28 +12742,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>536.3555552033632</v>
+        <v>629.3071317719869</v>
       </c>
       <c r="AB4" t="n">
-        <v>733.865332966334</v>
+        <v>861.0457807616677</v>
       </c>
       <c r="AC4" t="n">
-        <v>663.82625557449</v>
+        <v>778.8687799311168</v>
       </c>
       <c r="AD4" t="n">
-        <v>536355.5552033632</v>
+        <v>629307.1317719868</v>
       </c>
       <c r="AE4" t="n">
-        <v>733865.332966334</v>
+        <v>861045.7807616678</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.120031732204816e-06</v>
+        <v>1.903979713100875e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.23784722222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>663826.2555744901</v>
+        <v>778868.7799311168</v>
       </c>
     </row>
     <row r="5">
@@ -12848,28 +12848,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>503.1525997953831</v>
+        <v>596.1894277100274</v>
       </c>
       <c r="AB5" t="n">
-        <v>688.4355845661242</v>
+        <v>815.7326770141074</v>
       </c>
       <c r="AC5" t="n">
-        <v>622.732258600544</v>
+        <v>737.880295207883</v>
       </c>
       <c r="AD5" t="n">
-        <v>503152.5997953831</v>
+        <v>596189.4277100274</v>
       </c>
       <c r="AE5" t="n">
-        <v>688435.5845661242</v>
+        <v>815732.6770141074</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.164782180794295e-06</v>
+        <v>1.980052509805309e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.53472222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>622732.2586005441</v>
+        <v>737880.295207883</v>
       </c>
     </row>
     <row r="6">
@@ -12954,28 +12954,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>489.6913493689618</v>
+        <v>582.5575850830139</v>
       </c>
       <c r="AB6" t="n">
-        <v>670.0173078642389</v>
+        <v>797.0809885373749</v>
       </c>
       <c r="AC6" t="n">
-        <v>606.071796376873</v>
+        <v>721.0086977015608</v>
       </c>
       <c r="AD6" t="n">
-        <v>489691.3493689618</v>
+        <v>582557.5850830139</v>
       </c>
       <c r="AE6" t="n">
-        <v>670017.3078642389</v>
+        <v>797080.9885373749</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.189910192936021e-06</v>
+        <v>2.022768465052594e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.16145833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>606071.7963768729</v>
+        <v>721008.6977015608</v>
       </c>
     </row>
     <row r="7">
@@ -13060,28 +13060,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>468.428221343184</v>
+        <v>561.3797084032566</v>
       </c>
       <c r="AB7" t="n">
-        <v>640.9241580363663</v>
+        <v>768.1044833621518</v>
       </c>
       <c r="AC7" t="n">
-        <v>579.7552559360804</v>
+        <v>694.7976695114805</v>
       </c>
       <c r="AD7" t="n">
-        <v>468428.2213431839</v>
+        <v>561379.7084032566</v>
       </c>
       <c r="AE7" t="n">
-        <v>640924.1580363663</v>
+        <v>768104.4833621518</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.207744493688295e-06</v>
+        <v>2.053085594338588e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.90972222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>579755.2559360804</v>
+        <v>694797.6695114805</v>
       </c>
     </row>
     <row r="8">
@@ -13166,28 +13166,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>458.8209065221845</v>
+        <v>551.7723935822571</v>
       </c>
       <c r="AB8" t="n">
-        <v>627.7790060534585</v>
+        <v>754.9593313792438</v>
       </c>
       <c r="AC8" t="n">
-        <v>567.8646588090844</v>
+        <v>682.9070723844845</v>
       </c>
       <c r="AD8" t="n">
-        <v>458820.9065221845</v>
+        <v>551772.3935822571</v>
       </c>
       <c r="AE8" t="n">
-        <v>627779.0060534584</v>
+        <v>754959.3313792439</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.222143691657149e-06</v>
+        <v>2.077563276558942e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.71006944444444</v>
       </c>
       <c r="AH8" t="n">
-        <v>567864.6588090844</v>
+        <v>682907.0723844846</v>
       </c>
     </row>
     <row r="9">
@@ -13272,28 +13272,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>452.7273547747629</v>
+        <v>545.6788418348355</v>
       </c>
       <c r="AB9" t="n">
-        <v>619.4415397241061</v>
+        <v>746.6218650498915</v>
       </c>
       <c r="AC9" t="n">
-        <v>560.322908564498</v>
+        <v>675.3653221398981</v>
       </c>
       <c r="AD9" t="n">
-        <v>452727.3547747629</v>
+        <v>545678.8418348355</v>
       </c>
       <c r="AE9" t="n">
-        <v>619441.5397241061</v>
+        <v>746621.8650498915</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.230166774185547e-06</v>
+        <v>2.091201985116362e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.60590277777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>560322.9085644979</v>
+        <v>675365.3221398981</v>
       </c>
     </row>
     <row r="10">
@@ -13378,28 +13378,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>442.7937175609078</v>
+        <v>525.407868805682</v>
       </c>
       <c r="AB10" t="n">
-        <v>605.8498990469652</v>
+        <v>718.8862254591899</v>
       </c>
       <c r="AC10" t="n">
-        <v>548.0284349975959</v>
+        <v>650.2767330645182</v>
       </c>
       <c r="AD10" t="n">
-        <v>442793.7175609078</v>
+        <v>525407.8688056821</v>
       </c>
       <c r="AE10" t="n">
-        <v>605849.8990469652</v>
+        <v>718886.2254591899</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.240848532155907e-06</v>
+        <v>2.109360265717735e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.45833333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>548028.434997596</v>
+        <v>650276.7330645182</v>
       </c>
     </row>
     <row r="11">
@@ -13484,28 +13484,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>436.1020856855951</v>
+        <v>518.7162369303694</v>
       </c>
       <c r="AB11" t="n">
-        <v>596.6941131011992</v>
+        <v>709.7304395134237</v>
       </c>
       <c r="AC11" t="n">
-        <v>539.7464644122675</v>
+        <v>641.9947624791899</v>
       </c>
       <c r="AD11" t="n">
-        <v>436102.0856855951</v>
+        <v>518716.2369303694</v>
       </c>
       <c r="AE11" t="n">
-        <v>596694.1131011992</v>
+        <v>709730.4395134237</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.247906962532796e-06</v>
+        <v>2.121359129551242e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.36284722222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>539746.4644122676</v>
+        <v>641994.7624791899</v>
       </c>
     </row>
     <row r="12">
@@ -13590,28 +13590,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>427.6534375978647</v>
+        <v>510.267588842639</v>
       </c>
       <c r="AB12" t="n">
-        <v>585.1343000595186</v>
+        <v>698.1706264717433</v>
       </c>
       <c r="AC12" t="n">
-        <v>529.2899037029855</v>
+        <v>631.5382017699077</v>
       </c>
       <c r="AD12" t="n">
-        <v>427653.4375978647</v>
+        <v>510267.588842639</v>
       </c>
       <c r="AE12" t="n">
-        <v>585134.3000595187</v>
+        <v>698170.6264717432</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.256024157466219e-06</v>
+        <v>2.135157822959775e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.25868055555556</v>
       </c>
       <c r="AH12" t="n">
-        <v>529289.9037029855</v>
+        <v>631538.2017699077</v>
       </c>
     </row>
     <row r="13">
@@ -13696,28 +13696,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>422.4385320928533</v>
+        <v>505.0526833376276</v>
       </c>
       <c r="AB13" t="n">
-        <v>577.9990362821684</v>
+        <v>691.035362694393</v>
       </c>
       <c r="AC13" t="n">
-        <v>522.8356194861399</v>
+        <v>625.0839175530622</v>
       </c>
       <c r="AD13" t="n">
-        <v>422438.5320928533</v>
+        <v>505052.6833376276</v>
       </c>
       <c r="AE13" t="n">
-        <v>577999.0362821684</v>
+        <v>691035.362694393</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.259741597464714e-06</v>
+        <v>2.141477224578755e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.21527777777778</v>
       </c>
       <c r="AH13" t="n">
-        <v>522835.6194861399</v>
+        <v>625083.9175530622</v>
       </c>
     </row>
     <row r="14">
@@ -13802,28 +13802,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>423.9932734585278</v>
+        <v>506.6074247033021</v>
       </c>
       <c r="AB14" t="n">
-        <v>580.1263020090323</v>
+        <v>693.162628421257</v>
       </c>
       <c r="AC14" t="n">
-        <v>524.7598619576681</v>
+        <v>627.0081600245906</v>
       </c>
       <c r="AD14" t="n">
-        <v>423993.2734585278</v>
+        <v>506607.424703302</v>
       </c>
       <c r="AE14" t="n">
-        <v>580126.3020090323</v>
+        <v>693162.6284212569</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.259059282528281e-06</v>
+        <v>2.140317334408183e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.22395833333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>524759.8619576681</v>
+        <v>627008.1600245906</v>
       </c>
     </row>
   </sheetData>
@@ -14099,28 +14099,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>517.3737441641135</v>
+        <v>613.3699564296329</v>
       </c>
       <c r="AB2" t="n">
-        <v>707.8935816840317</v>
+        <v>839.2398343597052</v>
       </c>
       <c r="AC2" t="n">
-        <v>640.3332117829889</v>
+        <v>759.1439624489196</v>
       </c>
       <c r="AD2" t="n">
-        <v>517373.7441641135</v>
+        <v>613369.956429633</v>
       </c>
       <c r="AE2" t="n">
-        <v>707893.5816840316</v>
+        <v>839239.8343597052</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.093368259668571e-06</v>
+        <v>1.971601706784497e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.20833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>640333.2117829889</v>
+        <v>759143.9624489197</v>
       </c>
     </row>
     <row r="3">
@@ -14205,28 +14205,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>417.5163209387758</v>
+        <v>503.9896381891618</v>
       </c>
       <c r="AB3" t="n">
-        <v>571.2642498285294</v>
+        <v>689.5808574240199</v>
       </c>
       <c r="AC3" t="n">
-        <v>516.743591599304</v>
+        <v>623.7682282242827</v>
       </c>
       <c r="AD3" t="n">
-        <v>417516.3209387758</v>
+        <v>503989.6381891618</v>
       </c>
       <c r="AE3" t="n">
-        <v>571264.2498285294</v>
+        <v>689580.8574240198</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.261516105632267e-06</v>
+        <v>2.274812063553636e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.51736111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>516743.591599304</v>
+        <v>623768.2282242826</v>
       </c>
     </row>
     <row r="4">
@@ -14311,28 +14311,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>378.4623416252097</v>
+        <v>464.850318021024</v>
       </c>
       <c r="AB4" t="n">
-        <v>517.8288723917398</v>
+        <v>636.0287128650327</v>
       </c>
       <c r="AC4" t="n">
-        <v>468.4080115880585</v>
+        <v>575.3270251810983</v>
       </c>
       <c r="AD4" t="n">
-        <v>378462.3416252097</v>
+        <v>464850.3180210239</v>
       </c>
       <c r="AE4" t="n">
-        <v>517828.8723917397</v>
+        <v>636028.7128650327</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.335561228839714e-06</v>
+        <v>2.408332942730359e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.54513888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>468408.0115880584</v>
+        <v>575327.0251810983</v>
       </c>
     </row>
     <row r="5">
@@ -14417,28 +14417,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>366.4848380195359</v>
+        <v>443.2647575627472</v>
       </c>
       <c r="AB5" t="n">
-        <v>501.4407235482912</v>
+        <v>606.4943967583002</v>
       </c>
       <c r="AC5" t="n">
-        <v>453.5839246693172</v>
+        <v>548.6114227519193</v>
       </c>
       <c r="AD5" t="n">
-        <v>366484.8380195359</v>
+        <v>443264.7575627472</v>
       </c>
       <c r="AE5" t="n">
-        <v>501440.7235482912</v>
+        <v>606494.3967583003</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.356611526843343e-06</v>
+        <v>2.446291611372211e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.28472222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>453583.9246693172</v>
+        <v>548611.4227519194</v>
       </c>
     </row>
     <row r="6">
@@ -14523,28 +14523,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>353.2459716980439</v>
+        <v>430.0258912412552</v>
       </c>
       <c r="AB6" t="n">
-        <v>483.3267225896644</v>
+        <v>588.3803957996734</v>
       </c>
       <c r="AC6" t="n">
-        <v>437.1986985390217</v>
+        <v>532.2261966216238</v>
       </c>
       <c r="AD6" t="n">
-        <v>353245.9716980439</v>
+        <v>430025.8912412552</v>
       </c>
       <c r="AE6" t="n">
-        <v>483326.7225896644</v>
+        <v>588380.3957996734</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.374938267547834e-06</v>
+        <v>2.479339061701272e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.06770833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>437198.6985390217</v>
+        <v>532226.1966216238</v>
       </c>
     </row>
     <row r="7">
@@ -14629,28 +14629,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>354.1350574759434</v>
+        <v>430.9149770191547</v>
       </c>
       <c r="AB7" t="n">
-        <v>484.5432089746827</v>
+        <v>589.5968821846917</v>
       </c>
       <c r="AC7" t="n">
-        <v>438.2990851708032</v>
+        <v>533.3265832534053</v>
       </c>
       <c r="AD7" t="n">
-        <v>354135.0574759434</v>
+        <v>430914.9770191546</v>
       </c>
       <c r="AE7" t="n">
-        <v>484543.2089746827</v>
+        <v>589596.8821846917</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.37320740870352e-06</v>
+        <v>2.476217913614639e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.09375</v>
       </c>
       <c r="AH7" t="n">
-        <v>438299.0851708032</v>
+        <v>533326.5832534053</v>
       </c>
     </row>
   </sheetData>
@@ -14926,28 +14926,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>414.6525701522571</v>
+        <v>507.0844342924479</v>
       </c>
       <c r="AB2" t="n">
-        <v>567.3459396626463</v>
+        <v>693.8152939853039</v>
       </c>
       <c r="AC2" t="n">
-        <v>513.1992394562699</v>
+        <v>627.5985361032269</v>
       </c>
       <c r="AD2" t="n">
-        <v>414652.570152257</v>
+        <v>507084.4342924479</v>
       </c>
       <c r="AE2" t="n">
-        <v>567345.9396626463</v>
+        <v>693815.293985304</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.233026996671461e-06</v>
+        <v>2.300434247663839e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.66319444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>513199.2394562699</v>
+        <v>627598.5361032269</v>
       </c>
     </row>
     <row r="3">
@@ -15032,28 +15032,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>347.3150525885054</v>
+        <v>430.49519622922</v>
       </c>
       <c r="AB3" t="n">
-        <v>475.2117774103095</v>
+        <v>589.0225195884817</v>
       </c>
       <c r="AC3" t="n">
-        <v>429.8582323381873</v>
+        <v>532.8070370172547</v>
       </c>
       <c r="AD3" t="n">
-        <v>347315.0525885054</v>
+        <v>430495.19622922</v>
       </c>
       <c r="AE3" t="n">
-        <v>475211.7774103095</v>
+        <v>589022.5195884818</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.376231426591953e-06</v>
+        <v>2.567607939639419e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.72743055555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>429858.2323381873</v>
+        <v>532807.0370172547</v>
       </c>
     </row>
     <row r="4">
@@ -15138,28 +15138,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>325.5774912109006</v>
+        <v>399.5060038606899</v>
       </c>
       <c r="AB4" t="n">
-        <v>445.4694869399449</v>
+        <v>546.6217394431799</v>
       </c>
       <c r="AC4" t="n">
-        <v>402.9545043267474</v>
+        <v>494.4529278191518</v>
       </c>
       <c r="AD4" t="n">
-        <v>325577.4912109006</v>
+        <v>399506.0038606899</v>
       </c>
       <c r="AE4" t="n">
-        <v>445469.4869399449</v>
+        <v>546621.7394431799</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.42713912987789e-06</v>
+        <v>2.662585441693319e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.12847222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>402954.5043267474</v>
+        <v>494452.9278191518</v>
       </c>
     </row>
     <row r="5">
@@ -15244,28 +15244,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>323.0884437825147</v>
+        <v>397.0169564323041</v>
       </c>
       <c r="AB5" t="n">
-        <v>442.0638624394048</v>
+        <v>543.2161149426398</v>
       </c>
       <c r="AC5" t="n">
-        <v>399.8739078487149</v>
+        <v>491.3723313411193</v>
       </c>
       <c r="AD5" t="n">
-        <v>323088.4437825147</v>
+        <v>397016.9564323041</v>
       </c>
       <c r="AE5" t="n">
-        <v>442063.8624394048</v>
+        <v>543216.1149426398</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.431858698203357e-06</v>
+        <v>2.671390647612899e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.07638888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>399873.9078487149</v>
+        <v>491372.3313411193</v>
       </c>
     </row>
   </sheetData>
@@ -27866,28 +27866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>349.9934668473846</v>
+        <v>430.6948706658189</v>
       </c>
       <c r="AB2" t="n">
-        <v>478.8765019626055</v>
+        <v>589.2957229616507</v>
       </c>
       <c r="AC2" t="n">
-        <v>433.1732007226854</v>
+        <v>533.0541662439318</v>
       </c>
       <c r="AD2" t="n">
-        <v>349993.4668473846</v>
+        <v>430694.8706658189</v>
       </c>
       <c r="AE2" t="n">
-        <v>478876.5019626055</v>
+        <v>589295.7229616507</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.344792674791387e-06</v>
+        <v>2.586086183387903e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.70833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>433173.2007226854</v>
+        <v>533054.1662439319</v>
       </c>
     </row>
     <row r="3">
@@ -27972,28 +27972,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>299.1763361294039</v>
+        <v>370.825665955325</v>
       </c>
       <c r="AB3" t="n">
-        <v>409.346261820682</v>
+        <v>507.3800358338507</v>
       </c>
       <c r="AC3" t="n">
-        <v>370.2788291136022</v>
+        <v>458.9563973262199</v>
       </c>
       <c r="AD3" t="n">
-        <v>299176.3361294039</v>
+        <v>370825.6659553249</v>
       </c>
       <c r="AE3" t="n">
-        <v>409346.261820682</v>
+        <v>507380.0358338507</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.481521034649333e-06</v>
+        <v>2.849019889775598e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.06770833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>370278.8291136022</v>
+        <v>458956.3973262199</v>
       </c>
     </row>
     <row r="4">
@@ -28078,28 +28078,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>300.918387436712</v>
+        <v>372.567717262633</v>
       </c>
       <c r="AB4" t="n">
-        <v>411.7298132732205</v>
+        <v>509.7635872863892</v>
       </c>
       <c r="AC4" t="n">
-        <v>372.4348977608458</v>
+        <v>461.1124659734637</v>
       </c>
       <c r="AD4" t="n">
-        <v>300918.387436712</v>
+        <v>372567.717262633</v>
       </c>
       <c r="AE4" t="n">
-        <v>411729.8132732205</v>
+        <v>509763.5872863892</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.474142914528613e-06</v>
+        <v>2.834831491176141e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.15451388888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>372434.8977608458</v>
+        <v>461112.4659734637</v>
       </c>
     </row>
   </sheetData>
@@ -28375,28 +28375,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>256.6655211630153</v>
+        <v>332.1987810593706</v>
       </c>
       <c r="AB2" t="n">
-        <v>351.1810893387091</v>
+        <v>454.5290278213136</v>
       </c>
       <c r="AC2" t="n">
-        <v>317.6648590580821</v>
+        <v>411.1494153415438</v>
       </c>
       <c r="AD2" t="n">
-        <v>256665.5211630153</v>
+        <v>332198.7810593706</v>
       </c>
       <c r="AE2" t="n">
-        <v>351181.0893387091</v>
+        <v>454529.0278213136</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.521767666106533e-06</v>
+        <v>3.138796955383099e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.78819444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>317664.8590580821</v>
+        <v>411149.4153415438</v>
       </c>
     </row>
   </sheetData>
@@ -28672,28 +28672,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>616.4665754757211</v>
+        <v>735.2186054088266</v>
       </c>
       <c r="AB2" t="n">
-        <v>843.4767651517537</v>
+        <v>1005.958531476041</v>
       </c>
       <c r="AC2" t="n">
-        <v>762.9765265127448</v>
+        <v>909.9512611036336</v>
       </c>
       <c r="AD2" t="n">
-        <v>616466.5754757212</v>
+        <v>735218.6054088266</v>
       </c>
       <c r="AE2" t="n">
-        <v>843476.7651517538</v>
+        <v>1005958.531476041</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.765435046016178e-07</v>
+        <v>1.715748415115885e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.88368055555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>762976.5265127448</v>
+        <v>909951.2611036336</v>
       </c>
     </row>
     <row r="3">
@@ -28778,28 +28778,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>485.2117756516037</v>
+        <v>574.3185580372696</v>
       </c>
       <c r="AB3" t="n">
-        <v>663.8881574793048</v>
+        <v>785.8079882531675</v>
       </c>
       <c r="AC3" t="n">
-        <v>600.5276035023603</v>
+        <v>710.8115767427229</v>
       </c>
       <c r="AD3" t="n">
-        <v>485211.7756516036</v>
+        <v>574318.5580372695</v>
       </c>
       <c r="AE3" t="n">
-        <v>663888.1574793048</v>
+        <v>785807.9882531675</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.166923450174257e-06</v>
+        <v>2.050238469421616e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.31597222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>600527.6035023603</v>
+        <v>710811.5767427229</v>
       </c>
     </row>
     <row r="4">
@@ -28884,28 +28884,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>443.0297978553911</v>
+        <v>532.0512393864853</v>
       </c>
       <c r="AB4" t="n">
-        <v>606.1729145210045</v>
+        <v>727.9759781726698</v>
       </c>
       <c r="AC4" t="n">
-        <v>548.3206223281481</v>
+        <v>658.4989725365718</v>
       </c>
       <c r="AD4" t="n">
-        <v>443029.7978553911</v>
+        <v>532051.2393864853</v>
       </c>
       <c r="AE4" t="n">
-        <v>606172.9145210045</v>
+        <v>727975.9781726698</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.240017729031773e-06</v>
+        <v>2.178662233967551e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.23090277777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>548320.6223281481</v>
+        <v>658498.9725365718</v>
       </c>
     </row>
     <row r="5">
@@ -28990,28 +28990,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>417.0284093221682</v>
+        <v>506.1351021992832</v>
       </c>
       <c r="AB5" t="n">
-        <v>570.5966676295454</v>
+        <v>692.51637593386</v>
       </c>
       <c r="AC5" t="n">
-        <v>516.1397225084337</v>
+        <v>626.4235849675697</v>
       </c>
       <c r="AD5" t="n">
-        <v>417028.4093221682</v>
+        <v>506135.1021992831</v>
       </c>
       <c r="AE5" t="n">
-        <v>570596.6676295454</v>
+        <v>692516.37593386</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.273228972608326e-06</v>
+        <v>2.237013078821868e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.78819444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>516139.7225084337</v>
+        <v>626423.5849675697</v>
       </c>
     </row>
     <row r="6">
@@ -29096,28 +29096,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>403.8675821935929</v>
+        <v>483.0641386090714</v>
       </c>
       <c r="AB6" t="n">
-        <v>552.5894433375136</v>
+        <v>660.9496657306529</v>
       </c>
       <c r="AC6" t="n">
-        <v>499.8510824295352</v>
+        <v>597.8695572820005</v>
       </c>
       <c r="AD6" t="n">
-        <v>403867.5821935929</v>
+        <v>483064.1386090714</v>
       </c>
       <c r="AE6" t="n">
-        <v>552589.4433375136</v>
+        <v>660949.6657306529</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.297404985352712e-06</v>
+        <v>2.279489379523824e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.47569444444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>499851.0824295352</v>
+        <v>597869.5572820005</v>
       </c>
     </row>
     <row r="7">
@@ -29202,28 +29202,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>392.2220701717583</v>
+        <v>471.4186265872369</v>
       </c>
       <c r="AB7" t="n">
-        <v>536.6555400255087</v>
+        <v>645.0157624186479</v>
       </c>
       <c r="AC7" t="n">
-        <v>485.4378884862543</v>
+        <v>583.4563633387196</v>
       </c>
       <c r="AD7" t="n">
-        <v>392222.0701717583</v>
+        <v>471418.6265872369</v>
       </c>
       <c r="AE7" t="n">
-        <v>536655.5400255087</v>
+        <v>645015.7624186479</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.315007683023013e-06</v>
+        <v>2.310416624943273e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.25</v>
       </c>
       <c r="AH7" t="n">
-        <v>485437.8884862543</v>
+        <v>583456.3633387196</v>
       </c>
     </row>
     <row r="8">
@@ -29308,28 +29308,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>382.3076634248031</v>
+        <v>461.5042198402815</v>
       </c>
       <c r="AB8" t="n">
-        <v>523.0902113215684</v>
+        <v>631.4504337147076</v>
       </c>
       <c r="AC8" t="n">
-        <v>473.1672157147598</v>
+        <v>571.1856905672252</v>
       </c>
       <c r="AD8" t="n">
-        <v>382307.6634248031</v>
+        <v>461504.2198402815</v>
       </c>
       <c r="AE8" t="n">
-        <v>523090.2113215683</v>
+        <v>631450.4337147076</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.323845960594534e-06</v>
+        <v>2.325945129986045e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.14583333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>473167.2157147598</v>
+        <v>571185.6905672251</v>
       </c>
     </row>
     <row r="9">
@@ -29414,28 +29414,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>380.570284549121</v>
+        <v>459.7668409645996</v>
       </c>
       <c r="AB9" t="n">
-        <v>520.7130528961138</v>
+        <v>629.073275289253</v>
       </c>
       <c r="AC9" t="n">
-        <v>471.0169299530679</v>
+        <v>569.0354048055332</v>
       </c>
       <c r="AD9" t="n">
-        <v>380570.284549121</v>
+        <v>459766.8409645996</v>
       </c>
       <c r="AE9" t="n">
-        <v>520713.0528961138</v>
+        <v>629073.2752892531</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.325938588988906e-06</v>
+        <v>2.329621795525421e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.11979166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>471016.9299530679</v>
+        <v>569035.4048055331</v>
       </c>
     </row>
   </sheetData>
@@ -29711,28 +29711,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>781.491973060044</v>
+        <v>904.50160298301</v>
       </c>
       <c r="AB2" t="n">
-        <v>1069.27179453334</v>
+        <v>1237.57899699581</v>
       </c>
       <c r="AC2" t="n">
-        <v>967.2219951954665</v>
+        <v>1119.466194475561</v>
       </c>
       <c r="AD2" t="n">
-        <v>781491.973060044</v>
+        <v>904501.60298301</v>
       </c>
       <c r="AE2" t="n">
-        <v>1069271.79453334</v>
+        <v>1237578.99699581</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.444725153614078e-07</v>
+        <v>1.443953891227943e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.38368055555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>967221.9951954666</v>
+        <v>1119466.194475561</v>
       </c>
     </row>
     <row r="3">
@@ -29817,28 +29817,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>573.357083583924</v>
+        <v>675.7655591074875</v>
       </c>
       <c r="AB3" t="n">
-        <v>784.492456488841</v>
+        <v>924.61225064326</v>
       </c>
       <c r="AC3" t="n">
-        <v>709.6215974836233</v>
+        <v>836.3685551433108</v>
       </c>
       <c r="AD3" t="n">
-        <v>573357.083583924</v>
+        <v>675765.5591074876</v>
       </c>
       <c r="AE3" t="n">
-        <v>784492.456488841</v>
+        <v>924612.2506432601</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.059196662359276e-06</v>
+        <v>1.811108253220979e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.44444444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>709621.5974836233</v>
+        <v>836368.5551433108</v>
       </c>
     </row>
     <row r="4">
@@ -29923,28 +29923,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>521.8017991409693</v>
+        <v>614.0377087466887</v>
       </c>
       <c r="AB4" t="n">
-        <v>713.9522418553639</v>
+        <v>840.153482539054</v>
       </c>
       <c r="AC4" t="n">
-        <v>645.8136419309523</v>
+        <v>759.9704133283446</v>
       </c>
       <c r="AD4" t="n">
-        <v>521801.7991409693</v>
+        <v>614037.7087466888</v>
       </c>
       <c r="AE4" t="n">
-        <v>713952.2418553639</v>
+        <v>840153.482539054</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.138339271395281e-06</v>
+        <v>1.94643329483061e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.09027777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>645813.6419309522</v>
+        <v>759970.4133283447</v>
       </c>
     </row>
     <row r="5">
@@ -30029,28 +30029,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>487.3545838401957</v>
+        <v>579.5051525913435</v>
       </c>
       <c r="AB5" t="n">
-        <v>666.8200421769617</v>
+        <v>792.9045157384542</v>
       </c>
       <c r="AC5" t="n">
-        <v>603.1796732393989</v>
+        <v>717.2308216048525</v>
       </c>
       <c r="AD5" t="n">
-        <v>487354.5838401957</v>
+        <v>579505.1525913435</v>
       </c>
       <c r="AE5" t="n">
-        <v>666820.0421769617</v>
+        <v>792904.5157384542</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.186047840571363e-06</v>
+        <v>2.028009631364473e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.36111111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>603179.6732393989</v>
+        <v>717230.8216048526</v>
       </c>
     </row>
     <row r="6">
@@ -30135,28 +30135,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>475.1235435593101</v>
+        <v>557.1868872471857</v>
       </c>
       <c r="AB6" t="n">
-        <v>650.0849932692397</v>
+        <v>762.367680482201</v>
       </c>
       <c r="AC6" t="n">
-        <v>588.0417939116412</v>
+        <v>689.6083790467387</v>
       </c>
       <c r="AD6" t="n">
-        <v>475123.5435593101</v>
+        <v>557186.8872471857</v>
       </c>
       <c r="AE6" t="n">
-        <v>650084.9932692397</v>
+        <v>762367.6804822009</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.209344615773208e-06</v>
+        <v>2.067844520711193e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.03125</v>
       </c>
       <c r="AH6" t="n">
-        <v>588041.7939116412</v>
+        <v>689608.3790467387</v>
       </c>
     </row>
     <row r="7">
@@ -30241,28 +30241,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>453.7882440139546</v>
+        <v>546.024064111123</v>
       </c>
       <c r="AB7" t="n">
-        <v>620.8930951842982</v>
+        <v>747.09421339844</v>
       </c>
       <c r="AC7" t="n">
-        <v>561.6359296088402</v>
+        <v>675.7925902250062</v>
       </c>
       <c r="AD7" t="n">
-        <v>453788.2440139546</v>
+        <v>546024.0641111231</v>
       </c>
       <c r="AE7" t="n">
-        <v>620893.0951842982</v>
+        <v>747094.21339844</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.226995125702101e-06</v>
+        <v>2.098024925674492e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.77951388888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>561635.9296088403</v>
+        <v>675792.5902250062</v>
       </c>
     </row>
     <row r="8">
@@ -30347,28 +30347,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>444.1775630426824</v>
+        <v>536.4133831398508</v>
       </c>
       <c r="AB8" t="n">
-        <v>607.7433374860832</v>
+        <v>733.9444557002247</v>
       </c>
       <c r="AC8" t="n">
-        <v>549.7411663295418</v>
+        <v>663.8978269457079</v>
       </c>
       <c r="AD8" t="n">
-        <v>444177.5630426824</v>
+        <v>536413.3831398508</v>
       </c>
       <c r="AE8" t="n">
-        <v>607743.3374860832</v>
+        <v>733944.4557002247</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.241608988761508e-06</v>
+        <v>2.123013002902169e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.58854166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>549741.1663295418</v>
+        <v>663897.8269457079</v>
       </c>
     </row>
     <row r="9">
@@ -30453,28 +30453,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>435.4184819985228</v>
+        <v>517.3964848318267</v>
       </c>
       <c r="AB9" t="n">
-        <v>595.7587763780807</v>
+        <v>707.9246964688442</v>
       </c>
       <c r="AC9" t="n">
-        <v>538.9003949132501</v>
+        <v>640.3613570164086</v>
       </c>
       <c r="AD9" t="n">
-        <v>435418.4819985228</v>
+        <v>517396.4848318266</v>
       </c>
       <c r="AE9" t="n">
-        <v>595758.7763780807</v>
+        <v>707924.6964688442</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.252094909982705e-06</v>
+        <v>2.140942759614237e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.44965277777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>538900.3949132501</v>
+        <v>640361.3570164087</v>
       </c>
     </row>
     <row r="10">
@@ -30559,28 +30559,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>428.1519250499978</v>
+        <v>510.1299278833017</v>
       </c>
       <c r="AB10" t="n">
-        <v>585.8163525832414</v>
+        <v>697.982272674005</v>
       </c>
       <c r="AC10" t="n">
-        <v>529.9068620911108</v>
+        <v>631.3678241942695</v>
       </c>
       <c r="AD10" t="n">
-        <v>428151.9250499978</v>
+        <v>510129.9278833017</v>
       </c>
       <c r="AE10" t="n">
-        <v>585816.3525832414</v>
+        <v>697982.272674005</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.259639079549087e-06</v>
+        <v>2.153842448832421e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.34548611111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>529906.8620911108</v>
+        <v>631367.8241942695</v>
       </c>
     </row>
     <row r="11">
@@ -30665,28 +30665,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>420.3249858106112</v>
+        <v>502.3029886439152</v>
       </c>
       <c r="AB11" t="n">
-        <v>575.1071890157235</v>
+        <v>687.2731091064871</v>
       </c>
       <c r="AC11" t="n">
-        <v>520.2197660640713</v>
+        <v>621.6807281672301</v>
       </c>
       <c r="AD11" t="n">
-        <v>420324.9858106112</v>
+        <v>502302.9886439152</v>
       </c>
       <c r="AE11" t="n">
-        <v>575107.1890157235</v>
+        <v>687273.1091064871</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.268772743961216e-06</v>
+        <v>2.16945999709972e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.23263888888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>520219.7660640714</v>
+        <v>621680.72816723</v>
       </c>
     </row>
     <row r="12">
@@ -30771,28 +30771,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>415.8260538296596</v>
+        <v>497.8040566629635</v>
       </c>
       <c r="AB12" t="n">
-        <v>568.9515518005146</v>
+        <v>681.1174718912779</v>
       </c>
       <c r="AC12" t="n">
-        <v>514.6516142251909</v>
+        <v>616.1125763283494</v>
       </c>
       <c r="AD12" t="n">
-        <v>415826.0538296596</v>
+        <v>497804.0566629635</v>
       </c>
       <c r="AE12" t="n">
-        <v>568951.5518005146</v>
+        <v>681117.4718912779</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.27083671488032e-06</v>
+        <v>2.172989157357525e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.20659722222222</v>
       </c>
       <c r="AH12" t="n">
-        <v>514651.6142251908</v>
+        <v>616112.5763283494</v>
       </c>
     </row>
     <row r="13">
@@ -30877,28 +30877,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>416.5485671457863</v>
+        <v>498.5265699790901</v>
       </c>
       <c r="AB13" t="n">
-        <v>569.9401263946769</v>
+        <v>682.1060464854403</v>
       </c>
       <c r="AC13" t="n">
-        <v>515.5458406475594</v>
+        <v>617.0068027507181</v>
       </c>
       <c r="AD13" t="n">
-        <v>416548.5671457862</v>
+        <v>498526.5699790901</v>
       </c>
       <c r="AE13" t="n">
-        <v>569940.1263946769</v>
+        <v>682106.0464854403</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.270884162487656e-06</v>
+        <v>2.173070287478394e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.20659722222222</v>
       </c>
       <c r="AH13" t="n">
-        <v>515545.8406475594</v>
+        <v>617006.8027507181</v>
       </c>
     </row>
   </sheetData>
@@ -31174,28 +31174,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>244.8144545872055</v>
+        <v>318.0558107879338</v>
       </c>
       <c r="AB2" t="n">
-        <v>334.9659372175365</v>
+        <v>435.1779919521211</v>
       </c>
       <c r="AC2" t="n">
-        <v>302.9972582972401</v>
+        <v>393.6452151763577</v>
       </c>
       <c r="AD2" t="n">
-        <v>244814.4545872055</v>
+        <v>318055.8107879338</v>
       </c>
       <c r="AE2" t="n">
-        <v>334965.9372175365</v>
+        <v>435177.9919521211</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.49775553050331e-06</v>
+        <v>3.210379953779481e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.66493055555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>302997.2582972401</v>
+        <v>393645.2151763577</v>
       </c>
     </row>
   </sheetData>
@@ -31471,28 +31471,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>451.9877787767242</v>
+        <v>545.599626326926</v>
       </c>
       <c r="AB2" t="n">
-        <v>618.4296192157992</v>
+        <v>746.513478897228</v>
       </c>
       <c r="AC2" t="n">
-        <v>559.4075643292647</v>
+        <v>675.2672802095238</v>
       </c>
       <c r="AD2" t="n">
-        <v>451987.7787767242</v>
+        <v>545599.6263269261</v>
       </c>
       <c r="AE2" t="n">
-        <v>618429.6192157993</v>
+        <v>746513.478897228</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.182054999711544e-06</v>
+        <v>2.17785658975093e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.18402777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>559407.5643292647</v>
+        <v>675267.2802095239</v>
       </c>
     </row>
     <row r="3">
@@ -31577,28 +31577,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>367.7327244995653</v>
+        <v>452.0515794207081</v>
       </c>
       <c r="AB3" t="n">
-        <v>503.1481368831334</v>
+        <v>618.5169140715839</v>
       </c>
       <c r="AC3" t="n">
-        <v>455.1283848718518</v>
+        <v>559.4865278865323</v>
       </c>
       <c r="AD3" t="n">
-        <v>367732.7244995653</v>
+        <v>452051.5794207081</v>
       </c>
       <c r="AE3" t="n">
-        <v>503148.1368831334</v>
+        <v>618516.9140715839</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.336706389895064e-06</v>
+        <v>2.462791342624115e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.97048611111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>455128.3848718518</v>
+        <v>559486.5278865322</v>
       </c>
     </row>
     <row r="4">
@@ -31683,28 +31683,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>345.5970881233325</v>
+        <v>420.5377885779471</v>
       </c>
       <c r="AB4" t="n">
-        <v>472.8611826378166</v>
+        <v>575.398355150188</v>
       </c>
       <c r="AC4" t="n">
-        <v>427.7319750317008</v>
+        <v>520.4831437113168</v>
       </c>
       <c r="AD4" t="n">
-        <v>345597.0881233325</v>
+        <v>420537.7885779471</v>
       </c>
       <c r="AE4" t="n">
-        <v>472861.1826378166</v>
+        <v>575398.355150188</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.390373217980374e-06</v>
+        <v>2.561668852744325e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.31076388888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>427731.9750317007</v>
+        <v>520483.1437113168</v>
       </c>
     </row>
     <row r="5">
@@ -31789,28 +31789,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>333.4040124179066</v>
+        <v>408.3447128725213</v>
       </c>
       <c r="AB5" t="n">
-        <v>456.1780785371175</v>
+        <v>558.7152510494888</v>
       </c>
       <c r="AC5" t="n">
-        <v>412.6410829714886</v>
+        <v>505.3922516511047</v>
       </c>
       <c r="AD5" t="n">
-        <v>333404.0124179067</v>
+        <v>408344.7128725213</v>
       </c>
       <c r="AE5" t="n">
-        <v>456178.0785371175</v>
+        <v>558715.2510494888</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.410674642236599e-06</v>
+        <v>2.599072857302943e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.07638888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>412641.0829714886</v>
+        <v>505392.2516511047</v>
       </c>
     </row>
     <row r="6">
@@ -31895,28 +31895,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>333.5492689558488</v>
+        <v>408.4899694104633</v>
       </c>
       <c r="AB6" t="n">
-        <v>456.376824940596</v>
+        <v>558.9139974529674</v>
       </c>
       <c r="AC6" t="n">
-        <v>412.8208612971615</v>
+        <v>505.5720299767776</v>
       </c>
       <c r="AD6" t="n">
-        <v>333549.2689558488</v>
+        <v>408489.9694104634</v>
       </c>
       <c r="AE6" t="n">
-        <v>456376.824940596</v>
+        <v>558913.9974529673</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.414306428557854e-06</v>
+        <v>2.60576417858177e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.03298611111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>412820.8612971614</v>
+        <v>505572.0299767776</v>
       </c>
     </row>
   </sheetData>
@@ -32192,28 +32192,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>546.7810642623538</v>
+        <v>653.5471300577084</v>
       </c>
       <c r="AB2" t="n">
-        <v>748.1299744018437</v>
+        <v>894.2120158094424</v>
       </c>
       <c r="AC2" t="n">
-        <v>676.7294996519447</v>
+        <v>808.8696760550349</v>
       </c>
       <c r="AD2" t="n">
-        <v>546781.0642623538</v>
+        <v>653547.1300577084</v>
       </c>
       <c r="AE2" t="n">
-        <v>748129.9744018437</v>
+        <v>894212.0158094424</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.051555405997711e-06</v>
+        <v>1.878526992109453e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.76388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>676729.4996519447</v>
+        <v>808869.676055035</v>
       </c>
     </row>
     <row r="3">
@@ -32298,28 +32298,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>436.4132167566576</v>
+        <v>523.8370949247791</v>
       </c>
       <c r="AB3" t="n">
-        <v>597.119816358761</v>
+        <v>716.7370233376853</v>
       </c>
       <c r="AC3" t="n">
-        <v>540.1315391484059</v>
+        <v>648.332647777066</v>
       </c>
       <c r="AD3" t="n">
-        <v>436413.2167566576</v>
+        <v>523837.094924779</v>
       </c>
       <c r="AE3" t="n">
-        <v>597119.816358761</v>
+        <v>716737.0233376853</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.2299590933652e-06</v>
+        <v>2.19723215999712e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.75173611111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>540131.5391484059</v>
+        <v>648332.647777066</v>
       </c>
     </row>
     <row r="4">
@@ -32404,28 +32404,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>399.4163783111677</v>
+        <v>486.7549156247175</v>
       </c>
       <c r="AB4" t="n">
-        <v>546.4991098123235</v>
+        <v>665.9995496690501</v>
       </c>
       <c r="AC4" t="n">
-        <v>494.3420017881525</v>
+        <v>602.4374873848739</v>
       </c>
       <c r="AD4" t="n">
-        <v>399416.3783111677</v>
+        <v>486754.9156247175</v>
       </c>
       <c r="AE4" t="n">
-        <v>546499.1098123235</v>
+        <v>665999.5496690501</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.295665583974884e-06</v>
+        <v>2.314612010324613e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.85763888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>494342.0017881525</v>
+        <v>602437.4873848739</v>
       </c>
     </row>
     <row r="5">
@@ -32510,28 +32510,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>383.7276281209597</v>
+        <v>461.3524907021582</v>
       </c>
       <c r="AB5" t="n">
-        <v>525.0330696632711</v>
+        <v>631.2428312141101</v>
       </c>
       <c r="AC5" t="n">
-        <v>474.9246503831493</v>
+        <v>570.9979013579125</v>
       </c>
       <c r="AD5" t="n">
-        <v>383727.6281209597</v>
+        <v>461352.4907021582</v>
       </c>
       <c r="AE5" t="n">
-        <v>525033.0696632712</v>
+        <v>631242.8312141101</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.328267273036964e-06</v>
+        <v>2.372852548618806e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.44097222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>474924.6503831493</v>
+        <v>570997.9013579125</v>
       </c>
     </row>
     <row r="6">
@@ -32616,28 +32616,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>370.6438803571437</v>
+        <v>448.2687429383421</v>
       </c>
       <c r="AB6" t="n">
-        <v>507.1313087586046</v>
+        <v>613.3410703094434</v>
       </c>
       <c r="AC6" t="n">
-        <v>458.7314084139448</v>
+        <v>554.8046593887079</v>
       </c>
       <c r="AD6" t="n">
-        <v>370643.8803571437</v>
+        <v>448268.7429383422</v>
       </c>
       <c r="AE6" t="n">
-        <v>507131.3087586046</v>
+        <v>613341.0703094434</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.347838348723922e-06</v>
+        <v>2.407814847070104e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.19791666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>458731.4084139448</v>
+        <v>554804.659388708</v>
       </c>
     </row>
     <row r="7">
@@ -32722,28 +32722,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>361.9779166332185</v>
+        <v>439.602779214417</v>
       </c>
       <c r="AB7" t="n">
-        <v>495.2741548761931</v>
+        <v>601.483916427032</v>
       </c>
       <c r="AC7" t="n">
-        <v>448.0058846564506</v>
+        <v>544.0791356312139</v>
       </c>
       <c r="AD7" t="n">
-        <v>361977.9166332185</v>
+        <v>439602.779214417</v>
       </c>
       <c r="AE7" t="n">
-        <v>495274.1548761931</v>
+        <v>601483.916427032</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.360038826497925e-06</v>
+        <v>2.429610110243471e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.05902777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>448005.8846564506</v>
+        <v>544079.1356312139</v>
       </c>
     </row>
     <row r="8">
@@ -32828,28 +32828,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>362.7858144007266</v>
+        <v>440.410676981925</v>
       </c>
       <c r="AB8" t="n">
-        <v>496.3795562436316</v>
+        <v>602.5893177944706</v>
       </c>
       <c r="AC8" t="n">
-        <v>449.0057880688214</v>
+        <v>545.0790390435849</v>
       </c>
       <c r="AD8" t="n">
-        <v>362785.8144007266</v>
+        <v>440410.676981925</v>
       </c>
       <c r="AE8" t="n">
-        <v>496379.5562436316</v>
+        <v>602589.3177944706</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.361070207093253e-06</v>
+        <v>2.431452596408642e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.04166666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>449005.7880688214</v>
+        <v>545079.0390435848</v>
       </c>
     </row>
   </sheetData>
